--- a/visuals/gc_70_9_result.xlsx
+++ b/visuals/gc_70_9_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,28 +454,12 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>AVG</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B3" t="n">
         <v>32</v>
       </c>
     </row>
